--- a/0-admin/mia/2025-mia-harlock-time-tracker.xlsx
+++ b/0-admin/mia/2025-mia-harlock-time-tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28816"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28822"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4348e1419f457eb2/2025-theo/people/mia-cotton-harlock/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="187" documentId="8_{E6B1AFC3-31B1-434E-8DFB-53589C29742B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5140B737-67A5-4180-9538-9D1BD7A1815C}"/>
+  <xr:revisionPtr revIDLastSave="200" documentId="8_{E6B1AFC3-31B1-434E-8DFB-53589C29742B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A74193F6-2F22-4E28-82E6-A635D77D69B1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>March fees via Zelle</t>
+  </si>
+  <si>
+    <t>Email to Residents re: Mexico &amp; Mother's Day</t>
+  </si>
+  <si>
+    <t>Call &amp; Email to Doris about May health topic</t>
   </si>
 </sst>
 </file>
@@ -226,7 +232,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -295,9 +301,6 @@
     <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -329,6 +332,19 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1365,7 +1381,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.45"/>
@@ -1562,24 +1578,25 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.45"/>
   <cols>
-    <col min="1" max="1" width="15.59765625" style="36" customWidth="1"/>
+    <col min="1" max="1" width="15.59765625" style="35" customWidth="1"/>
     <col min="2" max="2" width="50.59765625" style="19" customWidth="1"/>
-    <col min="3" max="5" width="10.59765625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" style="41" customWidth="1"/>
+    <col min="4" max="5" width="10.59765625" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29" t="s">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="22" t="s">
@@ -1589,80 +1606,93 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+    <row r="2" spans="1:5" ht="18">
+      <c r="A2" s="29">
+        <v>45771</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="23">
+        <v>25</v>
+      </c>
       <c r="E2" s="23"/>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="32"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="23"/>
+    <row r="3" spans="1:5" ht="18">
+      <c r="A3" s="31">
+        <v>45772</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="23">
+        <v>25</v>
+      </c>
       <c r="E3" s="23"/>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="32"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="26"/>
+    <row r="4" spans="1:5" ht="18">
+      <c r="A4" s="31"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="39"/>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="32"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="26"/>
+    <row r="5" spans="1:5" ht="18">
+      <c r="A5" s="31"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="33"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="30"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="23"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="38"/>
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="30"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="23"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="38"/>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="23"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="38"/>
       <c r="D9" s="23"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="30"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="23"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="38"/>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="23">
-        <f>SUM(C2:C10)</f>
-        <v>0</v>
-      </c>
+      <c r="B11" s="30"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="23">
         <f>SUM(D2:D10)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E11" s="23">
         <f>SUM(E2:E10)</f>
@@ -1670,27 +1700,27 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="B12" s="31"/>
-      <c r="C12" s="23"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="38"/>
       <c r="D12" s="23"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="37"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="23"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="38"/>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="23"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="38"/>
       <c r="D14" s="23"/>
       <c r="E14" s="25">
         <f>D11-E11</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/0-admin/mia/2025-mia-harlock-time-tracker.xlsx
+++ b/0-admin/mia/2025-mia-harlock-time-tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28822"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28824"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4348e1419f457eb2/2025-theo/people/mia-cotton-harlock/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="200" documentId="8_{E6B1AFC3-31B1-434E-8DFB-53589C29742B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A74193F6-2F22-4E28-82E6-A635D77D69B1}"/>
+  <xr:revisionPtr revIDLastSave="206" documentId="8_{E6B1AFC3-31B1-434E-8DFB-53589C29742B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E811D7C3-2C15-4371-8551-169C3F01AB80}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>Call &amp; Email to Doris about May health topic</t>
+  </si>
+  <si>
+    <t>Calls with Doris &amp; Theo / Health Topic Article: Our Parents, Our Self v1</t>
   </si>
 </sst>
 </file>
@@ -1578,7 +1581,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.45"/>
@@ -1636,11 +1639,19 @@
       </c>
       <c r="E3" s="23"/>
     </row>
-    <row r="4" spans="1:5" ht="18">
-      <c r="A4" s="31"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="23"/>
+    <row r="4" spans="1:5" ht="36">
+      <c r="A4" s="31">
+        <v>45775</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="39">
+        <v>3</v>
+      </c>
+      <c r="D4" s="23">
+        <v>150</v>
+      </c>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="1:5" ht="18">
@@ -1692,7 +1703,7 @@
       <c r="C11" s="38"/>
       <c r="D11" s="23">
         <f>SUM(D2:D10)</f>
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E11" s="23">
         <f>SUM(E2:E10)</f>
@@ -1720,7 +1731,7 @@
       <c r="D14" s="23"/>
       <c r="E14" s="25">
         <f>D11-E11</f>
-        <v>50</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/0-admin/mia/2025-mia-harlock-time-tracker.xlsx
+++ b/0-admin/mia/2025-mia-harlock-time-tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28914"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4348e1419f457eb2/2025-theo/people/mia-cotton-harlock/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="206" documentId="8_{E6B1AFC3-31B1-434E-8DFB-53589C29742B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E811D7C3-2C15-4371-8551-169C3F01AB80}"/>
+  <xr:revisionPtr revIDLastSave="209" documentId="8_{E6B1AFC3-31B1-434E-8DFB-53589C29742B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3408827C-3299-494D-B865-2430FEE95323}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="12" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>Calls with Doris &amp; Theo / Health Topic Article: Our Parents, Our Self v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comms with Theo .5 / Email to residents re: hobbies .5 </t>
   </si>
 </sst>
 </file>
@@ -1580,7 +1583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D641B581-E755-456D-B6F9-40A5F9BD4A43}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1743,8 +1746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C28470-7CA3-4651-BD84-53FB2703137D}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1771,10 +1774,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.45">
-      <c r="A2" s="12"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="7"/>
+    <row r="2" spans="1:5" ht="36">
+      <c r="A2" s="12">
+        <v>45797</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
@@ -1840,7 +1849,7 @@
       <c r="B11" s="4"/>
       <c r="C11" s="7">
         <f>SUM(C2:C10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="6">
         <f>SUM(D2:D10)</f>

--- a/0-admin/mia/2025-mia-harlock-time-tracker.xlsx
+++ b/0-admin/mia/2025-mia-harlock-time-tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4348e1419f457eb2/2025-theo/people/mia-cotton-harlock/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="209" documentId="8_{E6B1AFC3-31B1-434E-8DFB-53589C29742B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3408827C-3299-494D-B865-2430FEE95323}"/>
+  <xr:revisionPtr revIDLastSave="214" documentId="8_{E6B1AFC3-31B1-434E-8DFB-53589C29742B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3DE7F1D-C211-4DD5-AF71-0EE2975B9DE4}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="12" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t xml:space="preserve">Comms with Theo .5 / Email to residents re: hobbies .5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hobby article with link to study </t>
   </si>
 </sst>
 </file>
@@ -1747,7 +1750,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1787,14 +1790,20 @@
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="17.45">
-      <c r="A3" s="13"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
+    <row r="3" spans="1:5" ht="18">
+      <c r="A3" s="13">
+        <v>45798</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="17.45">
+    <row r="4" spans="1:5" ht="18">
       <c r="A4" s="13"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
@@ -1849,7 +1858,7 @@
       <c r="B11" s="4"/>
       <c r="C11" s="7">
         <f>SUM(C2:C10)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="6">
         <f>SUM(D2:D10)</f>

--- a/0-admin/mia/2025-mia-harlock-time-tracker.xlsx
+++ b/0-admin/mia/2025-mia-harlock-time-tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28922"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4348e1419f457eb2/2025-theo/people/mia-cotton-harlock/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="214" documentId="8_{E6B1AFC3-31B1-434E-8DFB-53589C29742B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3DE7F1D-C211-4DD5-AF71-0EE2975B9DE4}"/>
+  <xr:revisionPtr revIDLastSave="219" documentId="8_{E6B1AFC3-31B1-434E-8DFB-53589C29742B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2809292-D363-4FA0-8520-A535B17BE2DB}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t xml:space="preserve">Hobby article with link to study </t>
+  </si>
+  <si>
+    <t>Record &amp; transcribe Jane's story / Toronto &gt; SF</t>
   </si>
 </sst>
 </file>
@@ -1750,7 +1753,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1804,14 +1807,22 @@
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="18">
-      <c r="A4" s="13"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
+      <c r="A4" s="13">
+        <v>45801</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" ht="17.45">
-      <c r="A5" s="13"/>
+    <row r="5" spans="1:5" ht="18">
+      <c r="A5" s="13">
+        <v>45804</v>
+      </c>
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
       <c r="D5" s="6"/>
@@ -1858,7 +1869,7 @@
       <c r="B11" s="4"/>
       <c r="C11" s="7">
         <f>SUM(C2:C10)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="6">
         <f>SUM(D2:D10)</f>

--- a/0-admin/mia/2025-mia-harlock-time-tracker.xlsx
+++ b/0-admin/mia/2025-mia-harlock-time-tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4348e1419f457eb2/2025-theo/people/mia-cotton-harlock/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="219" documentId="8_{E6B1AFC3-31B1-434E-8DFB-53589C29742B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2809292-D363-4FA0-8520-A535B17BE2DB}"/>
+  <xr:revisionPtr revIDLastSave="229" documentId="8_{E6B1AFC3-31B1-434E-8DFB-53589C29742B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A32100C-DF67-4950-9EA8-2B9961C4878E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>Record &amp; transcribe Jane's story / Toronto &gt; SF</t>
+  </si>
+  <si>
+    <t>Decoding transcription, editing Jane's story, sending out</t>
   </si>
 </sst>
 </file>
@@ -1753,7 +1756,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1790,7 +1793,9 @@
       <c r="C2" s="7">
         <v>1</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="6">
+        <v>50</v>
+      </c>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="18">
@@ -1803,7 +1808,9 @@
       <c r="C3" s="5">
         <v>1</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="6">
+        <v>50</v>
+      </c>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="18">
@@ -1816,16 +1823,24 @@
       <c r="C4" s="5">
         <v>1</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="6">
+        <v>50</v>
+      </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" ht="18">
+    <row r="5" spans="1:5" ht="36">
       <c r="A5" s="13">
         <v>45804</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="B5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="6">
+        <v>150</v>
+      </c>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" ht="17.45">
@@ -1869,11 +1884,11 @@
       <c r="B11" s="4"/>
       <c r="C11" s="7">
         <f>SUM(C2:C10)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D11" s="6">
         <f>SUM(D2:D10)</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E11" s="6">
         <f>SUM(E2:E10)</f>
@@ -1901,7 +1916,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="10">
         <f>D11-E11</f>
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/0-admin/mia/2025-mia-harlock-time-tracker.xlsx
+++ b/0-admin/mia/2025-mia-harlock-time-tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28922"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4348e1419f457eb2/2025-theo/people/mia-cotton-harlock/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4348E1419F457EB2/Documents/GitHub/theo-armour-agenda/0-admin/mia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="229" documentId="8_{E6B1AFC3-31B1-434E-8DFB-53589C29742B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A32100C-DF67-4950-9EA8-2B9961C4878E}"/>
+  <xr:revisionPtr revIDLastSave="235" documentId="8_{E6B1AFC3-31B1-434E-8DFB-53589C29742B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6486F2F-732A-48E0-BA8A-94CEC6645B41}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="12" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>Decoding transcription, editing Jane's story, sending out</t>
+  </si>
+  <si>
+    <t>Fees paid</t>
   </si>
 </sst>
 </file>
@@ -158,7 +161,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -607,14 +610,14 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.59765625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="50.59765625" customWidth="1"/>
-    <col min="3" max="5" width="10.59765625" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="50.5703125" customWidth="1"/>
+    <col min="3" max="5" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.45">
+    <row r="1" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -631,7 +634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.45">
+    <row r="2" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A2" s="12">
         <v>45664</v>
       </c>
@@ -646,7 +649,7 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="17.45">
+    <row r="3" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>45670</v>
       </c>
@@ -661,7 +664,7 @@
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="17.45">
+    <row r="4" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <v>45672</v>
       </c>
@@ -676,7 +679,7 @@
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" ht="35.1">
+    <row r="5" spans="1:5" ht="35" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>45677</v>
       </c>
@@ -691,7 +694,7 @@
       </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="17.45">
+    <row r="6" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>45678</v>
       </c>
@@ -706,7 +709,7 @@
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" ht="17.45">
+    <row r="7" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>45684</v>
       </c>
@@ -721,14 +724,14 @@
       </c>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" ht="17.45">
+    <row r="8" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
       <c r="B8" s="4"/>
       <c r="C8" s="7"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="17.45">
+    <row r="9" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>45697</v>
       </c>
@@ -741,14 +744,14 @@
         <v>325</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="17.45">
+    <row r="10" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A10" s="12"/>
       <c r="B10" s="4"/>
       <c r="C10" s="7"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="17.45">
+    <row r="11" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>12</v>
       </c>
@@ -766,19 +769,19 @@
         <v>325</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="17.45">
+    <row r="12" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="B12" s="4"/>
       <c r="C12" s="7"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:5" ht="17.45">
+    <row r="13" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A13" s="15"/>
       <c r="B13" s="4"/>
       <c r="C13" s="7"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="17.45">
+    <row r="14" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
         <v>13</v>
       </c>
@@ -803,14 +806,14 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.59765625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="50.59765625" customWidth="1"/>
-    <col min="3" max="5" width="10.59765625" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="50.5703125" customWidth="1"/>
+    <col min="3" max="5" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.45">
+    <row r="1" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -827,69 +830,69 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.45">
+    <row r="2" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A2" s="12"/>
       <c r="B2" s="4"/>
       <c r="C2" s="7"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="17.45">
+    <row r="3" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A3" s="13"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="17.45">
+    <row r="4" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A4" s="13"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" ht="17.45">
+    <row r="5" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A5" s="13"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="17.45">
+    <row r="6" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A6" s="14"/>
       <c r="B6" s="11"/>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" ht="17.45">
+    <row r="7" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A7" s="12"/>
       <c r="B7" s="4"/>
       <c r="C7" s="7"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" ht="17.45">
+    <row r="8" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
       <c r="B8" s="4"/>
       <c r="C8" s="7"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="17.45">
+    <row r="9" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A9" s="12"/>
       <c r="B9" s="4"/>
       <c r="C9" s="7"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="17.45">
+    <row r="10" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A10" s="12"/>
       <c r="B10" s="4"/>
       <c r="C10" s="7"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="17.45">
+    <row r="11" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>12</v>
       </c>
@@ -907,19 +910,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="17.45">
+    <row r="12" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="B12" s="4"/>
       <c r="C12" s="7"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:5" ht="17.45">
+    <row r="13" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A13" s="15"/>
       <c r="B13" s="4"/>
       <c r="C13" s="7"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="17.45">
+    <row r="14" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
         <v>13</v>
       </c>
@@ -944,14 +947,14 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.59765625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="50.59765625" customWidth="1"/>
-    <col min="3" max="5" width="10.59765625" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="50.5703125" customWidth="1"/>
+    <col min="3" max="5" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.45">
+    <row r="1" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -968,69 +971,69 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.45">
+    <row r="2" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A2" s="12"/>
       <c r="B2" s="4"/>
       <c r="C2" s="7"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="17.45">
+    <row r="3" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A3" s="13"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="17.45">
+    <row r="4" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A4" s="13"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" ht="17.45">
+    <row r="5" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A5" s="13"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="17.45">
+    <row r="6" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A6" s="14"/>
       <c r="B6" s="11"/>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" ht="17.45">
+    <row r="7" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A7" s="12"/>
       <c r="B7" s="4"/>
       <c r="C7" s="7"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" ht="17.45">
+    <row r="8" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
       <c r="B8" s="4"/>
       <c r="C8" s="7"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="17.45">
+    <row r="9" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A9" s="12"/>
       <c r="B9" s="4"/>
       <c r="C9" s="7"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="17.45">
+    <row r="10" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A10" s="12"/>
       <c r="B10" s="4"/>
       <c r="C10" s="7"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="17.45">
+    <row r="11" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>12</v>
       </c>
@@ -1048,19 +1051,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="17.45">
+    <row r="12" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="B12" s="4"/>
       <c r="C12" s="7"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:5" ht="17.45">
+    <row r="13" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A13" s="15"/>
       <c r="B13" s="4"/>
       <c r="C13" s="7"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="17.45">
+    <row r="14" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
         <v>13</v>
       </c>
@@ -1085,14 +1088,14 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.59765625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="50.59765625" customWidth="1"/>
-    <col min="3" max="5" width="10.59765625" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="50.5703125" customWidth="1"/>
+    <col min="3" max="5" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.45">
+    <row r="1" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1109,69 +1112,69 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.45">
+    <row r="2" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A2" s="12"/>
       <c r="B2" s="4"/>
       <c r="C2" s="7"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="17.45">
+    <row r="3" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A3" s="13"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="17.45">
+    <row r="4" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A4" s="13"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" ht="17.45">
+    <row r="5" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A5" s="13"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="17.45">
+    <row r="6" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A6" s="14"/>
       <c r="B6" s="11"/>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" ht="17.45">
+    <row r="7" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A7" s="12"/>
       <c r="B7" s="4"/>
       <c r="C7" s="7"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" ht="17.45">
+    <row r="8" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
       <c r="B8" s="4"/>
       <c r="C8" s="7"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="17.45">
+    <row r="9" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A9" s="12"/>
       <c r="B9" s="4"/>
       <c r="C9" s="7"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="17.45">
+    <row r="10" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A10" s="12"/>
       <c r="B10" s="4"/>
       <c r="C10" s="7"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="17.45">
+    <row r="11" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>12</v>
       </c>
@@ -1189,19 +1192,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="17.45">
+    <row r="12" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="B12" s="4"/>
       <c r="C12" s="7"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:5" ht="17.45">
+    <row r="13" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A13" s="15"/>
       <c r="B13" s="4"/>
       <c r="C13" s="7"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="17.45">
+    <row r="14" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
         <v>13</v>
       </c>
@@ -1227,14 +1230,14 @@
       <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.59765625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="50.59765625" customWidth="1"/>
-    <col min="3" max="5" width="10.59765625" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="50.5703125" customWidth="1"/>
+    <col min="3" max="5" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.45">
+    <row r="1" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1251,7 +1254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="32.25" customHeight="1">
+    <row r="2" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12">
         <v>45700</v>
       </c>
@@ -1266,7 +1269,7 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="35.1">
+    <row r="3" spans="1:5" ht="35" x14ac:dyDescent="0.35">
       <c r="A3" s="13"/>
       <c r="B3" s="4" t="s">
         <v>15</v>
@@ -1274,7 +1277,7 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="35.1">
+    <row r="4" spans="1:5" ht="35" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <v>45706</v>
       </c>
@@ -1289,7 +1292,7 @@
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" ht="17.45">
+    <row r="5" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>45709</v>
       </c>
@@ -1304,21 +1307,21 @@
       </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="17.45">
+    <row r="6" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A6" s="14"/>
       <c r="B6" s="11"/>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" ht="17.45">
+    <row r="7" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A7" s="12"/>
       <c r="B7" s="4"/>
       <c r="C7" s="7"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" ht="17.45">
+    <row r="8" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>45731</v>
       </c>
@@ -1331,20 +1334,20 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17.45">
+    <row r="9" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A9" s="12"/>
       <c r="B9" s="4"/>
       <c r="C9" s="7"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="17.45">
+    <row r="10" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A10" s="12"/>
       <c r="B10" s="4"/>
       <c r="C10" s="7"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="17.45">
+    <row r="11" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>12</v>
       </c>
@@ -1362,19 +1365,19 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="17.45">
+    <row r="12" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="B12" s="4"/>
       <c r="C12" s="7"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:5" ht="17.45">
+    <row r="13" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A13" s="15"/>
       <c r="B13" s="4"/>
       <c r="C13" s="7"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="17.45">
+    <row r="14" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
         <v>13</v>
       </c>
@@ -1399,15 +1402,15 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.45"/>
+  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.59765625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="50.59765625" customWidth="1"/>
-    <col min="3" max="4" width="10.59765625" customWidth="1"/>
-    <col min="5" max="5" width="10.59765625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="50.5703125" customWidth="1"/>
+    <col min="3" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1424,7 +1427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="13">
         <v>45741</v>
       </c>
@@ -1439,7 +1442,7 @@
       </c>
       <c r="E2" s="23"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>45742</v>
       </c>
@@ -1454,7 +1457,7 @@
       </c>
       <c r="E3" s="23"/>
     </row>
-    <row r="4" spans="1:5" ht="35.1">
+    <row r="4" spans="1:5" ht="35" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <v>45741</v>
       </c>
@@ -1469,7 +1472,7 @@
       </c>
       <c r="E4" s="23"/>
     </row>
-    <row r="5" spans="1:5" ht="35.1">
+    <row r="5" spans="1:5" ht="35" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>45742</v>
       </c>
@@ -1484,7 +1487,7 @@
       </c>
       <c r="E5" s="23"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>45747</v>
       </c>
@@ -1499,7 +1502,7 @@
       </c>
       <c r="E6" s="23"/>
     </row>
-    <row r="7" spans="1:5" ht="35.1">
+    <row r="7" spans="1:5" ht="35" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>45747</v>
       </c>
@@ -1514,14 +1517,14 @@
       </c>
       <c r="E7" s="23"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
       <c r="B8" s="4"/>
       <c r="C8" s="7"/>
       <c r="D8" s="6"/>
       <c r="E8" s="23"/>
     </row>
-    <row r="9" spans="1:5" ht="18">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>45765</v>
       </c>
@@ -1534,14 +1537,14 @@
         <v>275</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="12"/>
       <c r="B10" s="4"/>
       <c r="C10" s="7"/>
       <c r="D10" s="6"/>
       <c r="E10" s="23"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>12</v>
       </c>
@@ -1559,19 +1562,19 @@
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B12" s="4"/>
       <c r="C12" s="7"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="15"/>
       <c r="B13" s="4"/>
       <c r="C13" s="7"/>
       <c r="D13" s="6"/>
       <c r="E13" s="23"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
         <v>13</v>
       </c>
@@ -1592,19 +1595,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D641B581-E755-456D-B6F9-40A5F9BD4A43}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.45"/>
+  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.59765625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="50.59765625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="10.59765625" style="41" customWidth="1"/>
-    <col min="4" max="5" width="10.59765625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="50.5703125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="41" customWidth="1"/>
+    <col min="4" max="5" width="10.5703125" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -1621,7 +1624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="29">
         <v>45771</v>
       </c>
@@ -1636,7 +1639,7 @@
       </c>
       <c r="E2" s="23"/>
     </row>
-    <row r="3" spans="1:5" ht="18">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="31">
         <v>45772</v>
       </c>
@@ -1651,7 +1654,7 @@
       </c>
       <c r="E3" s="23"/>
     </row>
-    <row r="4" spans="1:5" ht="36">
+    <row r="4" spans="1:5" ht="35" x14ac:dyDescent="0.35">
       <c r="A4" s="31">
         <v>45775</v>
       </c>
@@ -1666,48 +1669,54 @@
       </c>
       <c r="E4" s="23"/>
     </row>
-    <row r="5" spans="1:5" ht="18">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="31"/>
       <c r="B5" s="30"/>
       <c r="C5" s="39"/>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="32"/>
       <c r="B6" s="33"/>
       <c r="C6" s="40"/>
       <c r="D6" s="26"/>
       <c r="E6" s="23"/>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="29"/>
-      <c r="B7" s="30"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="29">
+        <v>45795</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="C7" s="38"/>
       <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7" s="23">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="29"/>
       <c r="B8" s="30"/>
       <c r="C8" s="38"/>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="29"/>
       <c r="B9" s="30"/>
       <c r="C9" s="38"/>
       <c r="D9" s="23"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="29"/>
       <c r="B10" s="30"/>
       <c r="C10" s="38"/>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="34" t="s">
         <v>12</v>
       </c>
@@ -1719,22 +1728,22 @@
       </c>
       <c r="E11" s="23">
         <f>SUM(E2:E10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B12" s="30"/>
       <c r="C12" s="38"/>
       <c r="D12" s="23"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="36"/>
       <c r="B13" s="30"/>
       <c r="C13" s="38"/>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="34" t="s">
         <v>13</v>
       </c>
@@ -1743,7 +1752,7 @@
       <c r="D14" s="23"/>
       <c r="E14" s="25">
         <f>D11-E11</f>
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1755,18 +1764,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C28470-7CA3-4651-BD84-53FB2703137D}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.59765625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="50.59765625" customWidth="1"/>
-    <col min="3" max="5" width="10.59765625" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="50.5703125" customWidth="1"/>
+    <col min="3" max="5" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.45">
+    <row r="1" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1783,7 +1792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="36">
+    <row r="2" spans="1:5" ht="35" x14ac:dyDescent="0.35">
       <c r="A2" s="12">
         <v>45797</v>
       </c>
@@ -1798,7 +1807,7 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="18">
+    <row r="3" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>45798</v>
       </c>
@@ -1813,7 +1822,7 @@
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="18">
+    <row r="4" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <v>45801</v>
       </c>
@@ -1828,7 +1837,7 @@
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" ht="36">
+    <row r="5" spans="1:5" ht="35" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>45804</v>
       </c>
@@ -1843,41 +1852,47 @@
       </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="17.45">
+    <row r="6" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A6" s="14"/>
       <c r="B6" s="11"/>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" ht="17.45">
+    <row r="7" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A7" s="12"/>
       <c r="B7" s="4"/>
       <c r="C7" s="7"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" ht="17.45">
-      <c r="A8" s="12"/>
-      <c r="B8" s="4"/>
+    <row r="8" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="12">
+        <v>45827</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="C8" s="7"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" ht="17.45">
+      <c r="E8" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A9" s="12"/>
       <c r="B9" s="4"/>
       <c r="C9" s="7"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="17.45">
+    <row r="10" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A10" s="12"/>
       <c r="B10" s="4"/>
       <c r="C10" s="7"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="17.45">
+    <row r="11" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>12</v>
       </c>
@@ -1892,22 +1907,22 @@
       </c>
       <c r="E11" s="6">
         <f>SUM(E2:E10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="17.45">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="B12" s="4"/>
       <c r="C12" s="7"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:5" ht="17.45">
+    <row r="13" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A13" s="15"/>
       <c r="B13" s="4"/>
       <c r="C13" s="7"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="17.45">
+    <row r="14" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
         <v>13</v>
       </c>
@@ -1916,7 +1931,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="10">
         <f>D11-E11</f>
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1932,14 +1947,14 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.59765625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="50.59765625" customWidth="1"/>
-    <col min="3" max="5" width="10.59765625" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="50.5703125" customWidth="1"/>
+    <col min="3" max="5" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.45">
+    <row r="1" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1956,69 +1971,69 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.45">
+    <row r="2" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A2" s="12"/>
       <c r="B2" s="4"/>
       <c r="C2" s="7"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="17.45">
+    <row r="3" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A3" s="13"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="17.45">
+    <row r="4" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A4" s="13"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" ht="17.45">
+    <row r="5" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A5" s="13"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="17.45">
+    <row r="6" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A6" s="14"/>
       <c r="B6" s="11"/>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" ht="17.45">
+    <row r="7" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A7" s="12"/>
       <c r="B7" s="4"/>
       <c r="C7" s="7"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" ht="17.45">
+    <row r="8" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
       <c r="B8" s="4"/>
       <c r="C8" s="7"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="17.45">
+    <row r="9" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A9" s="12"/>
       <c r="B9" s="4"/>
       <c r="C9" s="7"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="17.45">
+    <row r="10" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A10" s="12"/>
       <c r="B10" s="4"/>
       <c r="C10" s="7"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="17.45">
+    <row r="11" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>12</v>
       </c>
@@ -2036,19 +2051,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="17.45">
+    <row r="12" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="B12" s="4"/>
       <c r="C12" s="7"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:5" ht="17.45">
+    <row r="13" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A13" s="15"/>
       <c r="B13" s="4"/>
       <c r="C13" s="7"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="17.45">
+    <row r="14" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
         <v>13</v>
       </c>
@@ -2075,14 +2090,14 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.59765625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="50.59765625" customWidth="1"/>
-    <col min="3" max="5" width="10.59765625" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="50.5703125" customWidth="1"/>
+    <col min="3" max="5" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.45">
+    <row r="1" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -2099,69 +2114,69 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.45">
+    <row r="2" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A2" s="12"/>
       <c r="B2" s="4"/>
       <c r="C2" s="7"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="17.45">
+    <row r="3" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A3" s="13"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="17.45">
+    <row r="4" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A4" s="13"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" ht="17.45">
+    <row r="5" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A5" s="13"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="17.45">
+    <row r="6" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A6" s="14"/>
       <c r="B6" s="11"/>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" ht="17.45">
+    <row r="7" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A7" s="12"/>
       <c r="B7" s="4"/>
       <c r="C7" s="7"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" ht="17.45">
+    <row r="8" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
       <c r="B8" s="4"/>
       <c r="C8" s="7"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="17.45">
+    <row r="9" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A9" s="12"/>
       <c r="B9" s="4"/>
       <c r="C9" s="7"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="17.45">
+    <row r="10" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A10" s="12"/>
       <c r="B10" s="4"/>
       <c r="C10" s="7"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="17.45">
+    <row r="11" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>12</v>
       </c>
@@ -2179,19 +2194,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="17.45">
+    <row r="12" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="B12" s="4"/>
       <c r="C12" s="7"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:5" ht="17.45">
+    <row r="13" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A13" s="15"/>
       <c r="B13" s="4"/>
       <c r="C13" s="7"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="17.45">
+    <row r="14" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
         <v>13</v>
       </c>
@@ -2218,14 +2233,14 @@
       <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.59765625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="50.59765625" customWidth="1"/>
-    <col min="3" max="5" width="10.59765625" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="50.5703125" customWidth="1"/>
+    <col min="3" max="5" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.45">
+    <row r="1" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -2242,69 +2257,69 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.45">
+    <row r="2" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A2" s="12"/>
       <c r="B2" s="4"/>
       <c r="C2" s="7"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="17.45">
+    <row r="3" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A3" s="13"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="17.45">
+    <row r="4" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A4" s="13"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" ht="17.45">
+    <row r="5" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A5" s="13"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="17.45">
+    <row r="6" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A6" s="14"/>
       <c r="B6" s="11"/>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" ht="17.45">
+    <row r="7" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A7" s="12"/>
       <c r="B7" s="4"/>
       <c r="C7" s="7"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" ht="17.45">
+    <row r="8" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
       <c r="B8" s="4"/>
       <c r="C8" s="7"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="17.45">
+    <row r="9" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A9" s="12"/>
       <c r="B9" s="4"/>
       <c r="C9" s="7"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="17.45">
+    <row r="10" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A10" s="12"/>
       <c r="B10" s="4"/>
       <c r="C10" s="7"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="17.45">
+    <row r="11" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>12</v>
       </c>
@@ -2322,19 +2337,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="17.45">
+    <row r="12" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="B12" s="4"/>
       <c r="C12" s="7"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:5" ht="17.45">
+    <row r="13" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A13" s="15"/>
       <c r="B13" s="4"/>
       <c r="C13" s="7"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="17.45">
+    <row r="14" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
         <v>13</v>
       </c>
@@ -2360,14 +2375,14 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.59765625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="50.59765625" customWidth="1"/>
-    <col min="3" max="5" width="10.59765625" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="50.5703125" customWidth="1"/>
+    <col min="3" max="5" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.45">
+    <row r="1" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -2384,69 +2399,69 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.45">
+    <row r="2" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A2" s="12"/>
       <c r="B2" s="4"/>
       <c r="C2" s="7"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="17.45">
+    <row r="3" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A3" s="13"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="17.45">
+    <row r="4" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A4" s="13"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" ht="17.45">
+    <row r="5" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A5" s="13"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="17.45">
+    <row r="6" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A6" s="14"/>
       <c r="B6" s="11"/>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" ht="17.45">
+    <row r="7" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A7" s="12"/>
       <c r="B7" s="4"/>
       <c r="C7" s="7"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" ht="17.45">
+    <row r="8" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
       <c r="B8" s="4"/>
       <c r="C8" s="7"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="17.45">
+    <row r="9" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A9" s="12"/>
       <c r="B9" s="4"/>
       <c r="C9" s="7"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="17.45">
+    <row r="10" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A10" s="12"/>
       <c r="B10" s="4"/>
       <c r="C10" s="7"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="17.45">
+    <row r="11" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>12</v>
       </c>
@@ -2464,19 +2479,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="17.45">
+    <row r="12" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="B12" s="4"/>
       <c r="C12" s="7"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:5" ht="17.45">
+    <row r="13" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A13" s="15"/>
       <c r="B13" s="4"/>
       <c r="C13" s="7"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="17.45">
+    <row r="14" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
         <v>13</v>
       </c>
